--- a/Extended Campuses/Self Appraisals/2016/TME SQL Raw Data from Jan-June 2016.xlsx
+++ b/Extended Campuses/Self Appraisals/2016/TME SQL Raw Data from Jan-June 2016.xlsx
@@ -917,8 +917,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="G110" sqref="G110"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="G110" sqref="G110:G126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Extended Campuses/Self Appraisals/2016/TME SQL Raw Data from Jan-June 2016.xlsx
+++ b/Extended Campuses/Self Appraisals/2016/TME SQL Raw Data from Jan-June 2016.xlsx
@@ -547,7 +547,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -613,7 +613,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -917,8 +917,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="G110" sqref="G110:G126"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="E129" sqref="E129:G133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Extended Campuses/Self Appraisals/2016/TME SQL Raw Data from Jan-June 2016.xlsx
+++ b/Extended Campuses/Self Appraisals/2016/TME SQL Raw Data from Jan-June 2016.xlsx
@@ -917,8 +917,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="E129" sqref="E129:G133"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1852,7 +1852,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>240</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>240</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>240</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>240</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>240</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>240</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>240</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>240</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>240</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>240</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>240</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>240</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>240</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>240</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>240</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>240</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>240</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>240</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>240</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>240</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>240</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>240</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>240</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>240</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>240</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>240</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>240</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>240</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>240</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>240</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>240</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>240</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>240</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>311</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>311</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>311</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>311</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>311</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>311</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>311</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>311</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>311</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>311</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>311</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>311</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>311</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>311</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>311</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>311</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>311</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>311</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>311</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>311</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>311</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>311</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>311</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>311</v>
       </c>
@@ -4156,7 +4156,7 @@
   <autoFilter ref="F1:F140">
     <filterColumn colId="0">
       <filters>
-        <filter val="EC, Yuma, Yav, PL Widget Maintenance"/>
+        <filter val="PL Admin Tools"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Extended Campuses/Self Appraisals/2016/TME SQL Raw Data from Jan-June 2016.xlsx
+++ b/Extended Campuses/Self Appraisals/2016/TME SQL Raw Data from Jan-June 2016.xlsx
@@ -558,7 +558,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -595,6 +595,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -608,7 +614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -627,6 +633,11 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -917,8 +928,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41:E42"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79:XFD83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2726,118 +2737,118 @@
         <v>99</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79">
+    <row r="79" spans="1:7" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="8">
         <v>240</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="8">
         <v>31726</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79" s="9">
         <v>42438.779937384257</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="8">
         <v>7</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E79" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="F79" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="G79" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80">
+    <row r="80" spans="1:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="8">
         <v>240</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="8">
         <v>31726</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80" s="9">
         <v>42438.780043865743</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="8">
         <v>0.1</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E80" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="F80" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="G80" s="10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A81">
+    <row r="81" spans="1:7" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A81" s="8">
         <v>240</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="8">
         <v>31726</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81" s="9">
         <v>42438.78457974537</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="8">
         <v>2</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E81" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="F81" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="G81" s="10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82">
+    <row r="82" spans="1:7" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="8">
         <v>240</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="8">
         <v>31726</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82" s="9">
         <v>42446.519328935188</v>
       </c>
-      <c r="D82">
-        <v>8</v>
-      </c>
-      <c r="E82" s="1" t="s">
+      <c r="D82" s="8">
+        <v>8</v>
+      </c>
+      <c r="E82" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F82" s="3" t="s">
+      <c r="F82" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="G82" s="10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83">
+    <row r="83" spans="1:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="8">
         <v>240</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="8">
         <v>31726</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83" s="9">
         <v>42446.542006365744</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="8">
         <v>1</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E83" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F83" s="3" t="s">
+      <c r="F83" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="G83" s="10" t="s">
         <v>104</v>
       </c>
     </row>

--- a/Extended Campuses/Self Appraisals/2016/TME SQL Raw Data from Jan-June 2016.xlsx
+++ b/Extended Campuses/Self Appraisals/2016/TME SQL Raw Data from Jan-June 2016.xlsx
@@ -558,7 +558,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -595,12 +595,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -614,7 +608,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -633,11 +627,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -928,8 +917,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79:XFD83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1679,7 +1668,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>299</v>
       </c>
@@ -1702,7 +1691,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>299</v>
       </c>
@@ -1725,7 +1714,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>299</v>
       </c>
@@ -1748,7 +1737,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>299</v>
       </c>
@@ -1771,7 +1760,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>299</v>
       </c>
@@ -1794,7 +1783,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>299</v>
       </c>
@@ -1817,7 +1806,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>299</v>
       </c>
@@ -1840,7 +1829,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>299</v>
       </c>
@@ -1863,7 +1852,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>240</v>
       </c>
@@ -1886,7 +1875,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>240</v>
       </c>
@@ -1909,7 +1898,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>240</v>
       </c>
@@ -1932,7 +1921,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>240</v>
       </c>
@@ -1955,7 +1944,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>240</v>
       </c>
@@ -1978,7 +1967,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>240</v>
       </c>
@@ -2001,7 +1990,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>240</v>
       </c>
@@ -2024,7 +2013,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>240</v>
       </c>
@@ -2047,7 +2036,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>240</v>
       </c>
@@ -2070,7 +2059,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>240</v>
       </c>
@@ -2093,7 +2082,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>240</v>
       </c>
@@ -2116,7 +2105,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>240</v>
       </c>
@@ -2139,7 +2128,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>240</v>
       </c>
@@ -2162,7 +2151,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>240</v>
       </c>
@@ -2185,7 +2174,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>240</v>
       </c>
@@ -2208,7 +2197,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>240</v>
       </c>
@@ -2231,7 +2220,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>240</v>
       </c>
@@ -2254,7 +2243,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>240</v>
       </c>
@@ -2277,7 +2266,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>240</v>
       </c>
@@ -2300,7 +2289,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>240</v>
       </c>
@@ -2323,7 +2312,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>240</v>
       </c>
@@ -2346,7 +2335,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>240</v>
       </c>
@@ -2369,7 +2358,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>240</v>
       </c>
@@ -2530,7 +2519,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>240</v>
       </c>
@@ -2553,7 +2542,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>240</v>
       </c>
@@ -2576,7 +2565,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>240</v>
       </c>
@@ -2599,7 +2588,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>240</v>
       </c>
@@ -2622,7 +2611,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>240</v>
       </c>
@@ -2737,118 +2726,118 @@
         <v>99</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="8">
+    <row r="79" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>240</v>
       </c>
-      <c r="B79" s="8">
+      <c r="B79">
         <v>31726</v>
       </c>
-      <c r="C79" s="9">
+      <c r="C79" s="2">
         <v>42438.779937384257</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D79">
         <v>7</v>
       </c>
-      <c r="E79" s="10" t="s">
+      <c r="E79" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F79" s="10" t="s">
+      <c r="F79" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G79" s="10" t="s">
+      <c r="G79" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="8">
+    <row r="80" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>240</v>
       </c>
-      <c r="B80" s="8">
+      <c r="B80">
         <v>31726</v>
       </c>
-      <c r="C80" s="9">
+      <c r="C80" s="2">
         <v>42438.780043865743</v>
       </c>
-      <c r="D80" s="8">
+      <c r="D80">
         <v>0.1</v>
       </c>
-      <c r="E80" s="10" t="s">
+      <c r="E80" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F80" s="10" t="s">
+      <c r="F80" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G80" s="10" t="s">
+      <c r="G80" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="1:7" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A81" s="8">
+    <row r="81" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>240</v>
       </c>
-      <c r="B81" s="8">
+      <c r="B81">
         <v>31726</v>
       </c>
-      <c r="C81" s="9">
+      <c r="C81" s="2">
         <v>42438.78457974537</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D81">
         <v>2</v>
       </c>
-      <c r="E81" s="10" t="s">
+      <c r="E81" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F81" s="10" t="s">
+      <c r="F81" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G81" s="10" t="s">
+      <c r="G81" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" s="8">
+    <row r="82" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>240</v>
       </c>
-      <c r="B82" s="8">
+      <c r="B82">
         <v>31726</v>
       </c>
-      <c r="C82" s="9">
+      <c r="C82" s="2">
         <v>42446.519328935188</v>
       </c>
-      <c r="D82" s="8">
-        <v>8</v>
-      </c>
-      <c r="E82" s="10" t="s">
+      <c r="D82">
+        <v>8</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F82" s="10" t="s">
+      <c r="F82" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G82" s="10" t="s">
+      <c r="G82" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="8">
+    <row r="83" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>240</v>
       </c>
-      <c r="B83" s="8">
+      <c r="B83">
         <v>31726</v>
       </c>
-      <c r="C83" s="9">
+      <c r="C83" s="2">
         <v>42446.542006365744</v>
       </c>
-      <c r="D83" s="8">
+      <c r="D83">
         <v>1</v>
       </c>
-      <c r="E83" s="10" t="s">
+      <c r="E83" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F83" s="10" t="s">
+      <c r="F83" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G83" s="10" t="s">
+      <c r="G83" s="1" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2990,7 +2979,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>299</v>
       </c>
@@ -3013,7 +3002,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>299</v>
       </c>
@@ -3036,7 +3025,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>299</v>
       </c>
@@ -4167,7 +4156,7 @@
   <autoFilter ref="F1:F140">
     <filterColumn colId="0">
       <filters>
-        <filter val="PL Admin Tools"/>
+        <filter val="State Regulatory Compliance"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Extended Campuses/Self Appraisals/2016/TME SQL Raw Data from Jan-June 2016.xlsx
+++ b/Extended Campuses/Self Appraisals/2016/TME SQL Raw Data from Jan-June 2016.xlsx
@@ -918,7 +918,7 @@
   <dimension ref="A1:G140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1346,7 +1346,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>381</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>381</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>381</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>381</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>381</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>381</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>381</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>381</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>381</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>381</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>381</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>381</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>381</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>381</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>299</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>299</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>299</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>299</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>299</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>299</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>299</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>299</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>381</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>381</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>381</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>381</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>381</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>381</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>299</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>299</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>299</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>381</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>381</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>381</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>381</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>381</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>381</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>381</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>381</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>381</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>381</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>381</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>381</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>381</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>381</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>381</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>381</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>381</v>
       </c>
@@ -4156,7 +4156,7 @@
   <autoFilter ref="F1:F140">
     <filterColumn colId="0">
       <filters>
-        <filter val="State Regulatory Compliance"/>
+        <filter val="The Enlightenment Portal"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Extended Campuses/Self Appraisals/2016/TME SQL Raw Data from Jan-June 2016.xlsx
+++ b/Extended Campuses/Self Appraisals/2016/TME SQL Raw Data from Jan-June 2016.xlsx
@@ -558,7 +558,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -595,6 +595,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -608,7 +614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -627,6 +633,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -917,8 +926,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1359,13 +1368,13 @@
       <c r="D19">
         <v>0.1</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1382,13 +1391,13 @@
       <c r="D20">
         <v>0.1</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1405,13 +1414,13 @@
       <c r="D21">
         <v>0.1</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1428,13 +1437,13 @@
       <c r="D22">
         <v>0.1</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1451,13 +1460,13 @@
       <c r="D23">
         <v>0.1</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1474,13 +1483,13 @@
       <c r="D24">
         <v>0.1</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1497,13 +1506,13 @@
       <c r="D25">
         <v>0.1</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="8" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1520,13 +1529,13 @@
       <c r="D26">
         <v>0.1</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1543,13 +1552,13 @@
       <c r="D27">
         <v>0.1</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="8" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1566,13 +1575,13 @@
       <c r="D28">
         <v>0.1</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1589,13 +1598,13 @@
       <c r="D29">
         <v>8</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1612,13 +1621,13 @@
       <c r="D30">
         <v>8</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1635,13 +1644,13 @@
       <c r="D31">
         <v>0.1</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="8" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1658,13 +1667,13 @@
       <c r="D32">
         <v>0.1</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2854,13 +2863,13 @@
       <c r="D84">
         <v>7</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E84" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F84" s="7" t="s">
+      <c r="F84" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="G84" s="4" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2877,13 +2886,13 @@
       <c r="D85">
         <v>5</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E85" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F85" s="7" t="s">
+      <c r="F85" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="G85" s="4" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2900,13 +2909,13 @@
       <c r="D86">
         <v>8</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E86" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F86" s="7" t="s">
+      <c r="F86" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="G86" s="4" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2923,13 +2932,13 @@
       <c r="D87">
         <v>8</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E87" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F87" s="7" t="s">
+      <c r="F87" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="G87" s="4" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2946,13 +2955,13 @@
       <c r="D88">
         <v>4</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E88" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F88" s="7" t="s">
+      <c r="F88" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="G88" s="4" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2969,13 +2978,13 @@
       <c r="D89">
         <v>2</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E89" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="F89" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="G89" s="4" t="s">
         <v>111</v>
       </c>
     </row>

--- a/Extended Campuses/Self Appraisals/2016/TME SQL Raw Data from Jan-June 2016.xlsx
+++ b/Extended Campuses/Self Appraisals/2016/TME SQL Raw Data from Jan-June 2016.xlsx
@@ -558,7 +558,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -592,12 +592,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCCFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,7 +629,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -923,11 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,14 +950,14 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6</v>
       </c>
@@ -987,7 +980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6</v>
       </c>
@@ -1010,7 +1003,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
@@ -1033,7 +1026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
@@ -1056,7 +1049,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1079,7 +1072,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1102,7 +1095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1125,7 +1118,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1148,7 +1141,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1171,7 +1164,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -1194,7 +1187,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
@@ -1217,7 +1210,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
@@ -1240,7 +1233,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6</v>
       </c>
@@ -1263,7 +1256,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6</v>
       </c>
@@ -1286,7 +1279,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6</v>
       </c>
@@ -1309,7 +1302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6</v>
       </c>
@@ -1332,7 +1325,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6</v>
       </c>
@@ -1371,7 +1364,7 @@
       <c r="E19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="8" t="s">
@@ -1394,7 +1387,7 @@
       <c r="E20" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G20" s="8" t="s">
@@ -1417,7 +1410,7 @@
       <c r="E21" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G21" s="8" t="s">
@@ -1440,7 +1433,7 @@
       <c r="E22" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G22" s="8" t="s">
@@ -1463,7 +1456,7 @@
       <c r="E23" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G23" s="8" t="s">
@@ -1486,7 +1479,7 @@
       <c r="E24" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G24" s="8" t="s">
@@ -1509,7 +1502,7 @@
       <c r="E25" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G25" s="8" t="s">
@@ -1532,7 +1525,7 @@
       <c r="E26" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G26" s="8" t="s">
@@ -1555,7 +1548,7 @@
       <c r="E27" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G27" s="8" t="s">
@@ -1578,7 +1571,7 @@
       <c r="E28" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G28" s="8" t="s">
@@ -1601,7 +1594,7 @@
       <c r="E29" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G29" s="8" t="s">
@@ -1624,7 +1617,7 @@
       <c r="E30" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G30" s="8" t="s">
@@ -1647,7 +1640,7 @@
       <c r="E31" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G31" s="8" t="s">
@@ -1670,14 +1663,14 @@
       <c r="E32" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>299</v>
       </c>
@@ -1700,7 +1693,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>299</v>
       </c>
@@ -1723,7 +1716,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>299</v>
       </c>
@@ -1746,7 +1739,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>299</v>
       </c>
@@ -1769,7 +1762,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>299</v>
       </c>
@@ -1792,7 +1785,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>299</v>
       </c>
@@ -1815,7 +1808,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>299</v>
       </c>
@@ -1838,7 +1831,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>299</v>
       </c>
@@ -1861,7 +1854,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>240</v>
       </c>
@@ -1884,7 +1877,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>240</v>
       </c>
@@ -1907,7 +1900,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>240</v>
       </c>
@@ -1930,7 +1923,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>240</v>
       </c>
@@ -1953,7 +1946,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>240</v>
       </c>
@@ -1976,7 +1969,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>240</v>
       </c>
@@ -1999,7 +1992,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>240</v>
       </c>
@@ -2022,7 +2015,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>240</v>
       </c>
@@ -2045,7 +2038,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>240</v>
       </c>
@@ -2068,7 +2061,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>240</v>
       </c>
@@ -2091,7 +2084,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>240</v>
       </c>
@@ -2114,7 +2107,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>240</v>
       </c>
@@ -2137,7 +2130,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>240</v>
       </c>
@@ -2160,7 +2153,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>240</v>
       </c>
@@ -2183,7 +2176,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>240</v>
       </c>
@@ -2206,7 +2199,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>240</v>
       </c>
@@ -2229,7 +2222,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>240</v>
       </c>
@@ -2252,7 +2245,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>240</v>
       </c>
@@ -2275,7 +2268,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>240</v>
       </c>
@@ -2298,7 +2291,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>240</v>
       </c>
@@ -2321,7 +2314,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>240</v>
       </c>
@@ -2344,7 +2337,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>240</v>
       </c>
@@ -2367,7 +2360,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>240</v>
       </c>
@@ -2390,7 +2383,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>123</v>
       </c>
@@ -2413,7 +2406,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>123</v>
       </c>
@@ -2436,7 +2429,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>123</v>
       </c>
@@ -2459,7 +2452,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>123</v>
       </c>
@@ -2482,7 +2475,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>123</v>
       </c>
@@ -2505,7 +2498,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>123</v>
       </c>
@@ -2528,7 +2521,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>240</v>
       </c>
@@ -2551,7 +2544,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>240</v>
       </c>
@@ -2574,7 +2567,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>240</v>
       </c>
@@ -2597,7 +2590,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>240</v>
       </c>
@@ -2620,7 +2613,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>240</v>
       </c>
@@ -2643,7 +2636,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>239</v>
       </c>
@@ -2666,7 +2659,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>239</v>
       </c>
@@ -2689,7 +2682,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>239</v>
       </c>
@@ -2712,7 +2705,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>239</v>
       </c>
@@ -2735,7 +2728,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>240</v>
       </c>
@@ -2758,7 +2751,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>240</v>
       </c>
@@ -2781,7 +2774,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>240</v>
       </c>
@@ -2804,7 +2797,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>240</v>
       </c>
@@ -2827,7 +2820,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>240</v>
       </c>
@@ -2863,13 +2856,13 @@
       <c r="D84">
         <v>7</v>
       </c>
-      <c r="E84" s="4" t="s">
+      <c r="E84" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="F84" s="4" t="s">
+      <c r="F84" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G84" s="4" t="s">
+      <c r="G84" s="8" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2886,13 +2879,13 @@
       <c r="D85">
         <v>5</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="E85" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="F85" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G85" s="4" t="s">
+      <c r="G85" s="8" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2909,13 +2902,13 @@
       <c r="D86">
         <v>8</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="E86" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="F86" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G86" s="4" t="s">
+      <c r="G86" s="8" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2932,13 +2925,13 @@
       <c r="D87">
         <v>8</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="E87" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="F87" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G87" s="4" t="s">
+      <c r="G87" s="8" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2955,13 +2948,13 @@
       <c r="D88">
         <v>4</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="E88" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="F88" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G88" s="4" t="s">
+      <c r="G88" s="8" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2978,17 +2971,17 @@
       <c r="D89">
         <v>2</v>
       </c>
-      <c r="E89" s="4" t="s">
+      <c r="E89" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="F89" s="4" t="s">
+      <c r="F89" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G89" s="4" t="s">
+      <c r="G89" s="8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>299</v>
       </c>
@@ -3011,7 +3004,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>299</v>
       </c>
@@ -3034,7 +3027,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>299</v>
       </c>
@@ -3448,7 +3441,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>311</v>
       </c>
@@ -3471,7 +3464,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>311</v>
       </c>
@@ -3494,7 +3487,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>311</v>
       </c>
@@ -3517,7 +3510,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>311</v>
       </c>
@@ -3540,7 +3533,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>311</v>
       </c>
@@ -3563,7 +3556,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>311</v>
       </c>
@@ -3586,7 +3579,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>311</v>
       </c>
@@ -3609,7 +3602,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>311</v>
       </c>
@@ -3632,7 +3625,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>311</v>
       </c>
@@ -3655,7 +3648,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>311</v>
       </c>
@@ -3678,7 +3671,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>311</v>
       </c>
@@ -3701,7 +3694,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>311</v>
       </c>
@@ -3724,7 +3717,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>311</v>
       </c>
@@ -3747,7 +3740,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>311</v>
       </c>
@@ -3770,7 +3763,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>311</v>
       </c>
@@ -3793,7 +3786,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>311</v>
       </c>
@@ -3816,7 +3809,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>311</v>
       </c>
@@ -3839,7 +3832,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>311</v>
       </c>
@@ -3862,7 +3855,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>311</v>
       </c>
@@ -3885,7 +3878,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>311</v>
       </c>
@@ -3908,7 +3901,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>311</v>
       </c>
@@ -3931,7 +3924,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>311</v>
       </c>
@@ -3954,7 +3947,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>311</v>
       </c>
@@ -3977,7 +3970,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>311</v>
       </c>
@@ -4000,7 +3993,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>6</v>
       </c>
@@ -4023,7 +4016,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>6</v>
       </c>
@@ -4046,7 +4039,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>6</v>
       </c>
@@ -4069,7 +4062,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>6</v>
       </c>
@@ -4092,7 +4085,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>6</v>
       </c>
@@ -4115,7 +4108,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>6</v>
       </c>
@@ -4138,7 +4131,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>6</v>
       </c>
@@ -4162,13 +4155,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="F1:F140">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="The Enlightenment Portal"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="F1:F140"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Extended Campuses/Self Appraisals/2016/TME SQL Raw Data from Jan-June 2016.xlsx
+++ b/Extended Campuses/Self Appraisals/2016/TME SQL Raw Data from Jan-June 2016.xlsx
@@ -919,7 +919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C127" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
